--- a/SeleniumFrameworkPrj/src/test/resources/testData/LoginData.xlsx
+++ b/SeleniumFrameworkPrj/src/test/resources/testData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Growskills\Automation testing\AutomationExercise\SeleniumFrameworkPrj\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F323E9F-3158-449D-B2FD-FFBC877BAC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C354087-7879-42F8-8D7A-42896AF2C805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="9660" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2810" windowWidth="9660" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>users7@123</t>
-  </si>
-  <si>
-    <t>users7@gmail.com</t>
-  </si>
-  <si>
-    <t>users10@gmail.com</t>
-  </si>
-  <si>
-    <t>users10@123</t>
+    <t>users15</t>
+  </si>
+  <si>
+    <t>users15@gmail.com</t>
+  </si>
+  <si>
+    <t>users16</t>
+  </si>
+  <si>
+    <t>users16@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -372,18 +372,18 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AF7088D-60BB-4778-9DC0-796E6AFFE203}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{29D6025C-1E8A-426F-83F5-B993220C8E07}"/>
+    <hyperlink ref="B2" r:id="rId2" display="users7@123" xr:uid="{29D6025C-1E8A-426F-83F5-B993220C8E07}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{A3657110-5BC6-478C-A929-22A1B7912D49}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{F1DF85B9-6CBE-4D1A-A4DB-64A0CB1AE17A}"/>
+    <hyperlink ref="B3" r:id="rId4" display="users10@123" xr:uid="{F1DF85B9-6CBE-4D1A-A4DB-64A0CB1AE17A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
